--- a/Databases/Templates GoalgetterLoss.xlsx
+++ b/Databases/Templates GoalgetterLoss.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Syncmap\Promotie\PASS\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Syncmap\Promotie\PASS\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376116E9-5585-45AD-9B34-40AD11ED5921}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
   <si>
     <t>Title (all purpose)</t>
   </si>
@@ -641,9 +642,6 @@
     <t>Christian Santos verzilverde een strafschop in de &lt;minute&gt;ste minuut: &lt;home goals&gt;-&lt;away goals&gt;.</t>
   </si>
   <si>
-    <t>In de &lt;minute&gt;e minuut ontving Ingo van Weert zijn tweede gele kaart en moest van het veld af.</t>
-  </si>
-  <si>
     <t>Scheidsrechter &lt;referee&gt; trok een directe rode kaart voor &lt;red player&gt;.</t>
   </si>
   <si>
@@ -698,9 +696,6 @@
     <t>In de &lt;minute&gt;e minuut kreeg &lt;twice yellow player&gt; zijn tweede gele kaart en moest daardoor het veld verlaten.</t>
   </si>
   <si>
-    <t>Scheidsrechter Van den Kerkhof kende in de &lt;minute&gt; minuut geen pardon en toonde &lt;red player&gt; rood.</t>
-  </si>
-  <si>
     <t>&lt;other team&gt; zegevierde voor &lt;attendees&gt; toeschouwers in het &lt;stadium&gt; met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
   </si>
   <si>
@@ -1116,13 +1111,22 @@
   </si>
   <si>
     <t>In de &lt;minute&gt;ste minuut maakte &lt;goal scorer&gt; ook nog zijn &lt;tweede; goal 2|derde; goal 3|vierde; goal 4|vijfde; goal 5|zesde; goal 6;; number of goals goal scorer&gt; &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut ontving &lt;twice yellow player&gt; zijn tweede gele kaart en moest van het veld af.</t>
+  </si>
+  <si>
+    <t>Scheidsrechter &lt;referee&gt; kende in de &lt;minute&gt; minuut geen pardon en toonde &lt;red player&gt; rood.</t>
+  </si>
+  <si>
+    <t>Tegen &lt;other team&gt; bezweek &lt;focus team&gt; onder de druk van de thuisploeg.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,20 +1169,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1194,7 +1197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1513,30 +1516,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="CP2" sqref="CP2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="130" customWidth="1"/>
-    <col min="7" max="7" width="130" style="4" customWidth="1"/>
-    <col min="8" max="8" width="130" customWidth="1"/>
-    <col min="9" max="10" width="130" style="4" customWidth="1"/>
-    <col min="11" max="12" width="130" customWidth="1"/>
-    <col min="13" max="14" width="130" style="4" customWidth="1"/>
-    <col min="15" max="17" width="130" customWidth="1"/>
-    <col min="18" max="20" width="130" style="4" customWidth="1"/>
-    <col min="21" max="23" width="130" customWidth="1"/>
-    <col min="24" max="24" width="130" style="4" customWidth="1"/>
-    <col min="25" max="97" width="130" customWidth="1"/>
+    <col min="1" max="97" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1556,13 +1549,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -1574,28 +1567,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>10</v>
@@ -1625,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>19</v>
@@ -1640,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>23</v>
@@ -1664,19 +1657,19 @@
         <v>29</v>
       </c>
       <c r="AQ1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>30</v>
@@ -1721,40 +1714,40 @@
         <v>43</v>
       </c>
       <c r="BJ1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="BV1" s="3" t="s">
         <v>44</v>
@@ -1802,13 +1795,13 @@
         <v>58</v>
       </c>
       <c r="CK1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="CM1" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="CN1" s="3" t="s">
         <v>59</v>
@@ -1829,43 +1822,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>348</v>
+      <c r="G2" t="s">
+        <v>346</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="J2" t="s">
+        <v>273</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>282</v>
+      <c r="M2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S2" t="s">
+        <v>280</v>
       </c>
       <c r="V2" t="s">
         <v>66</v>
@@ -1873,8 +1865,8 @@
       <c r="W2" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>318</v>
+      <c r="X2" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" t="s">
@@ -1891,10 +1883,10 @@
         <v>70</v>
       </c>
       <c r="AH2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AI2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ2" t="s">
         <v>71</v>
@@ -1903,7 +1895,7 @@
         <v>72</v>
       </c>
       <c r="AL2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN2" t="s">
         <v>73</v>
@@ -1912,7 +1904,7 @@
         <v>74</v>
       </c>
       <c r="AW2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AX2" t="s">
         <v>75</v>
@@ -1957,7 +1949,7 @@
         <v>88</v>
       </c>
       <c r="BN2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BO2" t="s">
         <v>89</v>
@@ -1966,7 +1958,7 @@
         <v>90</v>
       </c>
       <c r="BQ2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BR2" t="s">
         <v>91</v>
@@ -2014,7 +2006,7 @@
         <v>105</v>
       </c>
       <c r="CG2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="CH2" t="s">
         <v>106</v>
@@ -2026,10 +2018,10 @@
         <v>108</v>
       </c>
       <c r="CL2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="CM2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="CN2" t="s">
         <v>109</v>
@@ -2050,36 +2042,36 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97">
       <c r="A3" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>347</v>
+      <c r="G3" t="s">
+        <v>345</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
-        <v>287</v>
+      <c r="I3" t="s">
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="4" t="s">
-        <v>304</v>
+      <c r="M3" t="s">
+        <v>302</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>300</v>
+      <c r="R3" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" t="s">
+        <v>298</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -2087,7 +2079,7 @@
       <c r="W3" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="5"/>
+      <c r="X3" s="4"/>
       <c r="Y3" s="3"/>
       <c r="Z3" t="s">
         <v>147</v>
@@ -2103,13 +2095,13 @@
         <v>119</v>
       </c>
       <c r="AI3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AJ3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AN3" t="s">
         <v>120</v>
@@ -2130,7 +2122,7 @@
         <v>150</v>
       </c>
       <c r="BH3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI3" t="s">
         <v>125</v>
@@ -2181,10 +2173,10 @@
         <v>140</v>
       </c>
       <c r="CL3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="CM3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="CN3" t="s">
         <v>141</v>
@@ -2199,7 +2191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2207,27 +2199,27 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>298</v>
+      <c r="I4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>296</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="4" t="s">
-        <v>309</v>
+      <c r="M4" t="s">
+        <v>307</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="4" t="s">
-        <v>305</v>
+      <c r="R4" t="s">
+        <v>303</v>
       </c>
       <c r="W4" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="X4" s="4"/>
       <c r="Y4" s="3"/>
       <c r="Z4" t="s">
         <v>166</v>
@@ -2237,16 +2229,16 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF4" t="s">
         <v>328</v>
       </c>
-      <c r="AF4" t="s">
-        <v>330</v>
-      </c>
       <c r="AL4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AV4" t="s">
         <v>148</v>
@@ -2282,7 +2274,7 @@
         <v>159</v>
       </c>
       <c r="CD4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="CF4" t="s">
         <v>160</v>
@@ -2294,10 +2286,10 @@
         <v>162</v>
       </c>
       <c r="CL4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="CM4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="CN4" t="s">
         <v>163</v>
@@ -2309,45 +2301,45 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>302</v>
+      <c r="I5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" t="s">
+        <v>300</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="4" t="s">
-        <v>306</v>
+      <c r="R5" t="s">
+        <v>304</v>
       </c>
       <c r="W5" t="s">
-        <v>354</v>
-      </c>
-      <c r="X5" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
       <c r="Z5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AF5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AN5" t="s">
         <v>167</v>
@@ -2359,7 +2351,7 @@
         <v>169</v>
       </c>
       <c r="BR5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BV5" t="s">
         <v>170</v>
@@ -2380,7 +2372,7 @@
         <v>175</v>
       </c>
       <c r="CL5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="CN5" t="s">
         <v>176</v>
@@ -2389,9 +2381,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2403,9 +2395,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="W6" t="s">
-        <v>311</v>
-      </c>
-      <c r="X6" s="5"/>
+        <v>309</v>
+      </c>
+      <c r="X6" s="4"/>
       <c r="Y6" s="3"/>
       <c r="Z6" t="s">
         <v>189</v>
@@ -2415,13 +2407,13 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AN6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AV6" t="s">
         <v>69</v>
@@ -2454,9 +2446,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2468,9 +2460,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="W7" t="s">
-        <v>355</v>
-      </c>
-      <c r="X7" s="5"/>
+        <v>353</v>
+      </c>
+      <c r="X7" s="4"/>
       <c r="Y7" s="3"/>
       <c r="Z7" t="s">
         <v>196</v>
@@ -2480,7 +2472,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AV7" t="s">
         <v>190</v>
@@ -2501,9 +2493,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2515,9 +2507,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="W8" t="s">
-        <v>312</v>
-      </c>
-      <c r="X8" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="X8" s="4"/>
       <c r="Y8" s="3"/>
       <c r="Z8" t="s">
         <v>202</v>
@@ -2527,7 +2519,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AV8" t="s">
         <v>197</v>
@@ -2545,7 +2537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2559,12 +2551,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="W9" t="s">
-        <v>313</v>
-      </c>
-      <c r="X9" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="X9" s="4"/>
       <c r="Y9" s="3"/>
       <c r="Z9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -2580,13 +2572,13 @@
         <v>205</v>
       </c>
       <c r="CN9" t="s">
+        <v>363</v>
+      </c>
+      <c r="CQ9" t="s">
         <v>206</v>
       </c>
-      <c r="CQ9" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -2600,36 +2592,36 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="W10" t="s">
-        <v>314</v>
-      </c>
-      <c r="X10" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="X10" s="4"/>
       <c r="Y10" s="3"/>
       <c r="Z10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AV10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ10" t="s">
         <v>209</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BZ10" t="s">
         <v>210</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="CN10" t="s">
         <v>211</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CQ10" t="s">
         <v>212</v>
       </c>
-      <c r="CQ10" t="s">
-        <v>213</v>
-      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2641,36 +2633,36 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="W11" t="s">
-        <v>315</v>
-      </c>
-      <c r="X11" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="X11" s="4"/>
       <c r="Y11" s="3"/>
       <c r="Z11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AV11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>215</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BZ11" t="s">
         <v>216</v>
       </c>
-      <c r="BZ11" t="s">
+      <c r="CN11" t="s">
         <v>217</v>
       </c>
-      <c r="CN11" t="s">
+      <c r="CQ11" t="s">
         <v>218</v>
       </c>
-      <c r="CQ11" t="s">
-        <v>219</v>
-      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2682,36 +2674,36 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="W12" t="s">
-        <v>316</v>
-      </c>
-      <c r="X12" s="5"/>
+        <v>314</v>
+      </c>
+      <c r="X12" s="4"/>
       <c r="Y12" s="3"/>
       <c r="Z12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AV12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>221</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BZ12" t="s">
         <v>222</v>
       </c>
-      <c r="BZ12" t="s">
+      <c r="CN12" t="s">
         <v>223</v>
       </c>
-      <c r="CN12" t="s">
-        <v>224</v>
-      </c>
       <c r="CQ12" t="s">
-        <v>225</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2723,33 +2715,33 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="W13" t="s">
-        <v>317</v>
-      </c>
-      <c r="X13" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="X13" s="4"/>
       <c r="Y13" s="3"/>
       <c r="Z13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AV13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ13" t="s">
         <v>227</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="CN13" t="s">
         <v>228</v>
       </c>
-      <c r="BZ13" t="s">
-        <v>229</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>230</v>
-      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2761,30 +2753,30 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="W14" t="s">
-        <v>361</v>
-      </c>
-      <c r="X14" s="5"/>
+        <v>359</v>
+      </c>
+      <c r="X14" s="4"/>
       <c r="Y14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AV14" t="s">
+        <v>230</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>232</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="CN14" t="s">
         <v>233</v>
       </c>
-      <c r="BZ14" t="s">
-        <v>234</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>235</v>
-      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2796,27 +2788,27 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="W15" t="s">
-        <v>319</v>
-      </c>
-      <c r="X15" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="X15" s="4"/>
       <c r="Y15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AV15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>236</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>237</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>238</v>
-      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2828,24 +2820,24 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="W16" t="s">
-        <v>320</v>
-      </c>
-      <c r="X16" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="X16" s="4"/>
       <c r="Y16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="BJ16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BZ16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2857,24 +2849,24 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="W17" t="s">
-        <v>321</v>
-      </c>
-      <c r="X17" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="X17" s="4"/>
       <c r="Y17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="BJ17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BZ17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2886,57 +2878,60 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="W18" t="s">
-        <v>322</v>
-      </c>
-      <c r="X18" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="X18" s="4"/>
       <c r="Y18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="BJ18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="W20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="W21" t="s">
+        <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78">
       <c r="A24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78">
+      <c r="A25" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2946,15 +2941,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2964,15 +2959,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>

--- a/Databases/Templates GoalgetterLoss.xlsx
+++ b/Databases/Templates GoalgetterLoss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Syncmap\Promotie\PASS\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzo/Projects/PASS/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376116E9-5585-45AD-9B34-40AD11ED5921}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A1DEF-1C58-CA43-96F5-827EF6C08070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,13 +1148,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1166,10 +1178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1179,9 +1192,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutrale" xfId="1" builtinId="28"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,7 +1212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1520,16 +1535,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="97" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1912,7 +1927,7 @@
       <c r="AY2" t="s">
         <v>76</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="BA2" t="s">
@@ -2042,7 +2057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2118,7 +2133,7 @@
       <c r="AY3" t="s">
         <v>124</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="5" t="s">
         <v>150</v>
       </c>
       <c r="BH3" t="s">
@@ -2191,7 +2206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2301,7 +2316,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>270</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:97">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:97">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:97">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -2774,7 +2789,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:97">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -2806,7 +2821,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:97">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:78">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:78">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -2890,7 +2905,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:78">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:78">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>294</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:78">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>295</v>
       </c>
@@ -2914,22 +2929,22 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:78">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:78">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:78">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -2947,9 +2962,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2965,9 +2980,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
